--- a/dist/uploads/excel/fail_upload.xlsx
+++ b/dist/uploads/excel/fail_upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>지점명</t>
   </si>
@@ -31,274 +31,34 @@
     <t>미입력사유</t>
   </si>
   <si>
-    <t>서귀포점</t>
+    <t>양재점</t>
+  </si>
+  <si>
+    <t>점주</t>
+  </si>
+  <si>
+    <t>점주(양재)</t>
+  </si>
+  <si>
+    <t>01099999999</t>
+  </si>
+  <si>
+    <t>yangje@example.com</t>
+  </si>
+  <si>
+    <t>휴대폰번호 중복,이메일 중복</t>
+  </si>
+  <si>
+    <t>사원</t>
+  </si>
+  <si>
+    <t>사원(양재)</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>박광균</t>
-  </si>
-  <si>
-    <t>01086627071</t>
-  </si>
-  <si>
-    <t>doublek17@hanmail.net</t>
-  </si>
-  <si>
-    <t>필수입력값 누락,휴대폰번호 중복,이메일 중복</t>
-  </si>
-  <si>
-    <t>남악점</t>
-  </si>
-  <si>
-    <t>점주</t>
-  </si>
-  <si>
-    <t>정병훈</t>
-  </si>
-  <si>
-    <t>01041021879</t>
-  </si>
-  <si>
-    <t>voda77@naver.com</t>
-  </si>
-  <si>
-    <t>휴대폰번호 중복,이메일 중복</t>
-  </si>
-  <si>
-    <t>미장점</t>
-  </si>
-  <si>
-    <t>서명주</t>
-  </si>
-  <si>
-    <t>010431140821</t>
-  </si>
-  <si>
-    <t>poohru@hanmail.net</t>
-  </si>
-  <si>
-    <t>잘못된 휴대폰번호 형식,이메일 중복</t>
-  </si>
-  <si>
-    <t>방이점</t>
-  </si>
-  <si>
-    <t>김은경</t>
-  </si>
-  <si>
-    <t>01056578077</t>
-  </si>
-  <si>
-    <t>tov10</t>
-  </si>
-  <si>
-    <t>잘못된 이메일 형식,휴대폰번호 중복</t>
-  </si>
-  <si>
-    <t>군포점</t>
-  </si>
-  <si>
-    <t>김남율</t>
-  </si>
-  <si>
-    <t>01041714222</t>
-  </si>
-  <si>
-    <t>kny1003y@naver.com</t>
-  </si>
-  <si>
-    <t>상암점</t>
-  </si>
-  <si>
-    <t>정춘영</t>
-  </si>
-  <si>
-    <t>01094917643</t>
-  </si>
-  <si>
-    <t>chunpung1@naver.com</t>
-  </si>
-  <si>
-    <t>전주점</t>
-  </si>
-  <si>
-    <t>오현진</t>
-  </si>
-  <si>
-    <t>01024473443</t>
-  </si>
-  <si>
-    <t>eyeohj@naver.com</t>
-  </si>
-  <si>
-    <t>강릉점</t>
-  </si>
-  <si>
-    <t>이인영</t>
-  </si>
-  <si>
-    <t>01044541471</t>
-  </si>
-  <si>
-    <t>voda2580@naver.com</t>
-  </si>
-  <si>
-    <t>신흥점</t>
-  </si>
-  <si>
-    <t>문응기</t>
-  </si>
-  <si>
-    <t>01032608283</t>
-  </si>
-  <si>
-    <t>m2k0913@hanmail.net</t>
-  </si>
-  <si>
-    <t>정읍점</t>
-  </si>
-  <si>
-    <t>박순희</t>
-  </si>
-  <si>
-    <t>01036568185</t>
-  </si>
-  <si>
-    <t>enffl1173@naver.com</t>
-  </si>
-  <si>
-    <t>구의점</t>
-  </si>
-  <si>
-    <t>김정표</t>
-  </si>
-  <si>
-    <t>01087848071</t>
-  </si>
-  <si>
-    <t>e709_@hanmail.net</t>
-  </si>
-  <si>
-    <t>목동점</t>
-  </si>
-  <si>
-    <t>이희환</t>
-  </si>
-  <si>
-    <t>01034032969</t>
-  </si>
-  <si>
-    <t>hwan75the@naver.com</t>
-  </si>
-  <si>
-    <t>분당정자점</t>
-  </si>
-  <si>
-    <t>박성열</t>
-  </si>
-  <si>
-    <t>01090758090</t>
-  </si>
-  <si>
-    <t>jungja_voda@naver.com</t>
-  </si>
-  <si>
-    <t>광교점</t>
-  </si>
-  <si>
-    <t>최우영</t>
-  </si>
-  <si>
-    <t>01087890196</t>
-  </si>
-  <si>
-    <t>voda0401@naver.com</t>
-  </si>
-  <si>
-    <t>야탑점</t>
-  </si>
-  <si>
-    <t>김지연</t>
-  </si>
-  <si>
-    <t>01063991741</t>
-  </si>
-  <si>
-    <t>abba2111@naver.com</t>
-  </si>
-  <si>
-    <t>군산점</t>
-  </si>
-  <si>
-    <t>최순웅</t>
-  </si>
-  <si>
-    <t>01020091407</t>
-  </si>
-  <si>
-    <t>voda113@hanmail.net</t>
-  </si>
-  <si>
-    <t>세종첫마을점</t>
-  </si>
-  <si>
-    <t>서봉근</t>
-  </si>
-  <si>
-    <t>01089995865</t>
-  </si>
-  <si>
-    <t>hwarang1972@naver.com</t>
-  </si>
-  <si>
-    <t>수지점</t>
-  </si>
-  <si>
-    <t>김성우</t>
-  </si>
-  <si>
-    <t>01082912468</t>
-  </si>
-  <si>
-    <t>sung-woo7655@hanmail.net</t>
-  </si>
-  <si>
-    <t>송파점</t>
-  </si>
-  <si>
-    <t>구창모</t>
-  </si>
-  <si>
-    <t>01097620828</t>
-  </si>
-  <si>
-    <t>lucas@intertoday.com</t>
-  </si>
-  <si>
-    <t>일원본점</t>
-  </si>
-  <si>
-    <t>배진호</t>
-  </si>
-  <si>
-    <t>01085662702</t>
-  </si>
-  <si>
-    <t>bjh9407@hanmail.net</t>
-  </si>
-  <si>
-    <t>세종아름점</t>
-  </si>
-  <si>
-    <t>김용준</t>
-  </si>
-  <si>
-    <t>01030111103</t>
-  </si>
-  <si>
-    <t>kyj-0921@daum.net</t>
+    <t>필수입력값 누락,잘못된 이메일 형식,잘못된 휴대폰번호 형식</t>
   </si>
 </sst>
 </file>
@@ -737,404 +497,43 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25"/>

--- a/dist/uploads/excel/fail_upload.xlsx
+++ b/dist/uploads/excel/fail_upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
   <si>
     <t>지점명</t>
   </si>
@@ -31,34 +31,442 @@
     <t>미입력사유</t>
   </si>
   <si>
-    <t>양재점</t>
-  </si>
-  <si>
-    <t>점주</t>
-  </si>
-  <si>
-    <t>점주(양재)</t>
-  </si>
-  <si>
-    <t>01099999999</t>
-  </si>
-  <si>
-    <t>yangje@example.com</t>
+    <t>대치캠퍼스</t>
+  </si>
+  <si>
+    <t>담당자</t>
+  </si>
+  <si>
+    <t>방지원</t>
+  </si>
+  <si>
+    <t>01052366700</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>휴대폰번호 중복</t>
+  </si>
+  <si>
+    <t>목동캠퍼스</t>
+  </si>
+  <si>
+    <t>대표</t>
+  </si>
+  <si>
+    <t>이경희</t>
+  </si>
+  <si>
+    <t>01041043494</t>
+  </si>
+  <si>
+    <t>lkh6110@naver.com</t>
   </si>
   <si>
     <t>휴대폰번호 중복,이메일 중복</t>
   </si>
   <si>
-    <t>사원</t>
-  </si>
-  <si>
-    <t>사원(양재)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>필수입력값 누락,잘못된 이메일 형식,잘못된 휴대폰번호 형식</t>
+    <t>송파캠퍼스</t>
+  </si>
+  <si>
+    <t>김혜란</t>
+  </si>
+  <si>
+    <t>01090990475</t>
+  </si>
+  <si>
+    <t>motionblue9@naver.com</t>
+  </si>
+  <si>
+    <t>정발산캠퍼스</t>
+  </si>
+  <si>
+    <t>정연하</t>
+  </si>
+  <si>
+    <t>01072779467</t>
+  </si>
+  <si>
+    <t>조선대캠퍼스</t>
+  </si>
+  <si>
+    <t>김세제</t>
+  </si>
+  <si>
+    <t>01030489848</t>
+  </si>
+  <si>
+    <t>shizai71@naver.com</t>
+  </si>
+  <si>
+    <t>구로역캠퍼스</t>
+  </si>
+  <si>
+    <t>한재형</t>
+  </si>
+  <si>
+    <t>01073073080</t>
+  </si>
+  <si>
+    <t>han308000@naver.com</t>
+  </si>
+  <si>
+    <t>서산동문캠퍼스</t>
+  </si>
+  <si>
+    <t>박은영</t>
+  </si>
+  <si>
+    <t>01065965278</t>
+  </si>
+  <si>
+    <t>hyeokie@naver.com</t>
+  </si>
+  <si>
+    <t>신중동캠퍼스</t>
+  </si>
+  <si>
+    <t>김점희</t>
+  </si>
+  <si>
+    <t>01058809133</t>
+  </si>
+  <si>
+    <t>연수캠퍼스</t>
+  </si>
+  <si>
+    <t>정연옥</t>
+  </si>
+  <si>
+    <t>01044530313</t>
+  </si>
+  <si>
+    <t>hanas303@naver.com</t>
+  </si>
+  <si>
+    <t>태평캠퍼스</t>
+  </si>
+  <si>
+    <t>이성수</t>
+  </si>
+  <si>
+    <t>01086840590</t>
+  </si>
+  <si>
+    <t>부산대캠퍼스</t>
+  </si>
+  <si>
+    <t>김태희</t>
+  </si>
+  <si>
+    <t>01099221857</t>
+  </si>
+  <si>
+    <t>Pleasantoi@naver.com</t>
+  </si>
+  <si>
+    <t>협성대캠퍼스</t>
+  </si>
+  <si>
+    <t>김순덕</t>
+  </si>
+  <si>
+    <t>01043737790</t>
+  </si>
+  <si>
+    <t>ksd8423@hanmail.net</t>
+  </si>
+  <si>
+    <t>명일점(CAFÉ)캠퍼스</t>
+  </si>
+  <si>
+    <t>서유리</t>
+  </si>
+  <si>
+    <t>01089444592</t>
+  </si>
+  <si>
+    <t>happy2u00@naver.com</t>
+  </si>
+  <si>
+    <t>강남자활센터캠퍼스</t>
+  </si>
+  <si>
+    <t>김경숙</t>
+  </si>
+  <si>
+    <t>01087078839</t>
+  </si>
+  <si>
+    <t>kn1801@hanmail.net</t>
+  </si>
+  <si>
+    <t>노량진역캠퍼스</t>
+  </si>
+  <si>
+    <t>정소연</t>
+  </si>
+  <si>
+    <t>01041629242</t>
+  </si>
+  <si>
+    <t>01041629242@daum.net</t>
+  </si>
+  <si>
+    <t>강동역캠퍼스</t>
+  </si>
+  <si>
+    <t>이명자</t>
+  </si>
+  <si>
+    <t>01087088330</t>
+  </si>
+  <si>
+    <t>돈암캠퍼스</t>
+  </si>
+  <si>
+    <t>박춘현</t>
+  </si>
+  <si>
+    <t>01020321923</t>
+  </si>
+  <si>
+    <t>pseen99@empas.com</t>
+  </si>
+  <si>
+    <t>청계캠퍼스</t>
+  </si>
+  <si>
+    <t>박형자</t>
+  </si>
+  <si>
+    <t>01095929071</t>
+  </si>
+  <si>
+    <t>hyoungia67@naver.com</t>
+  </si>
+  <si>
+    <t>영도캠퍼스</t>
+  </si>
+  <si>
+    <t>김태원</t>
+  </si>
+  <si>
+    <t>01037737274</t>
+  </si>
+  <si>
+    <t>ksoojinlucky@nate.com</t>
+  </si>
+  <si>
+    <t>신풍캠퍼스</t>
+  </si>
+  <si>
+    <t>허순옥</t>
+  </si>
+  <si>
+    <t>01040350171</t>
+  </si>
+  <si>
+    <t>jsj5373@naver.com</t>
+  </si>
+  <si>
+    <t>이태원캠퍼스</t>
+  </si>
+  <si>
+    <t>홍은숙</t>
+  </si>
+  <si>
+    <t>01049239747</t>
+  </si>
+  <si>
+    <t>오산운암캠퍼스</t>
+  </si>
+  <si>
+    <t>이경열</t>
+  </si>
+  <si>
+    <t>01090084562</t>
+  </si>
+  <si>
+    <t>lky486@hanmail.net</t>
+  </si>
+  <si>
+    <t>목4동캠퍼스</t>
+  </si>
+  <si>
+    <t>유재열</t>
+  </si>
+  <si>
+    <t>01099432520</t>
+  </si>
+  <si>
+    <t>imflight@hanmail.net</t>
+  </si>
+  <si>
+    <t>불광캠퍼스</t>
+  </si>
+  <si>
+    <t>이명래</t>
+  </si>
+  <si>
+    <t>01047670600</t>
+  </si>
+  <si>
+    <t>mrle63@hanmail.net</t>
+  </si>
+  <si>
+    <t>이메일 중복</t>
+  </si>
+  <si>
+    <t>천호로데오캠퍼스</t>
+  </si>
+  <si>
+    <t>이병희</t>
+  </si>
+  <si>
+    <t>01058916233</t>
+  </si>
+  <si>
+    <t>장현캠퍼스</t>
+  </si>
+  <si>
+    <t>박상진</t>
+  </si>
+  <si>
+    <t>01082507839</t>
+  </si>
+  <si>
+    <t>siesta99@hotmail.com</t>
+  </si>
+  <si>
+    <t>아차산캠퍼스</t>
+  </si>
+  <si>
+    <t>임정수</t>
+  </si>
+  <si>
+    <t>01033704054</t>
+  </si>
+  <si>
+    <t>teaconsuil@naver.com</t>
+  </si>
+  <si>
+    <t>은행사거리캠퍼스</t>
+  </si>
+  <si>
+    <t>이종표</t>
+  </si>
+  <si>
+    <t>01058335513</t>
+  </si>
+  <si>
+    <t>jongpyogo@naver.com</t>
+  </si>
+  <si>
+    <t>한양대캠퍼스</t>
+  </si>
+  <si>
+    <t>김건</t>
+  </si>
+  <si>
+    <t>01077467782</t>
+  </si>
+  <si>
+    <t>avm1004@naver.com</t>
+  </si>
+  <si>
+    <t>창동캠퍼스</t>
+  </si>
+  <si>
+    <t>문세영</t>
+  </si>
+  <si>
+    <t>01040097007</t>
+  </si>
+  <si>
+    <t>synoon0331@naver.com</t>
+  </si>
+  <si>
+    <t>홍제캠퍼스</t>
+  </si>
+  <si>
+    <t>박상숙</t>
+  </si>
+  <si>
+    <t>01099617273</t>
+  </si>
+  <si>
+    <t>balmymy@hanmail.net</t>
+  </si>
+  <si>
+    <t>정릉캠퍼스</t>
+  </si>
+  <si>
+    <t>남궁선애</t>
+  </si>
+  <si>
+    <t>01037972392</t>
+  </si>
+  <si>
+    <t>nksa7083@naver.com</t>
+  </si>
+  <si>
+    <t>양천구청캠퍼스</t>
+  </si>
+  <si>
+    <t>한기철</t>
+  </si>
+  <si>
+    <t>01037773730</t>
+  </si>
+  <si>
+    <t>gicheol_han@naver.com</t>
+  </si>
+  <si>
+    <t>JC캠퍼스</t>
+  </si>
+  <si>
+    <t>권호영</t>
+  </si>
+  <si>
+    <t>01035991267</t>
+  </si>
+  <si>
+    <t>미아사거리캠퍼스</t>
+  </si>
+  <si>
+    <t>안소형</t>
+  </si>
+  <si>
+    <t>01047177333</t>
+  </si>
+  <si>
+    <t>asjghi@nate.com</t>
+  </si>
+  <si>
+    <t>사당캠퍼스</t>
+  </si>
+  <si>
+    <t>김문선</t>
+  </si>
+  <si>
+    <t>01043777172</t>
+  </si>
+  <si>
+    <t>sun717273@naver.com</t>
+  </si>
+  <si>
+    <t>세종시캠퍼스</t>
+  </si>
+  <si>
+    <t>김복자</t>
+  </si>
+  <si>
+    <t>01033280920</t>
+  </si>
+  <si>
+    <t>ceandi@nate.com</t>
   </si>
 </sst>
 </file>
@@ -497,59 +905,724 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25"/>

--- a/dist/uploads/excel/fail_upload.xlsx
+++ b/dist/uploads/excel/fail_upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>지점명</t>
   </si>
@@ -29,444 +29,6 @@
   </si>
   <si>
     <t>미입력사유</t>
-  </si>
-  <si>
-    <t>대치캠퍼스</t>
-  </si>
-  <si>
-    <t>담당자</t>
-  </si>
-  <si>
-    <t>방지원</t>
-  </si>
-  <si>
-    <t>01052366700</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>휴대폰번호 중복</t>
-  </si>
-  <si>
-    <t>목동캠퍼스</t>
-  </si>
-  <si>
-    <t>대표</t>
-  </si>
-  <si>
-    <t>이경희</t>
-  </si>
-  <si>
-    <t>01041043494</t>
-  </si>
-  <si>
-    <t>lkh6110@naver.com</t>
-  </si>
-  <si>
-    <t>휴대폰번호 중복,이메일 중복</t>
-  </si>
-  <si>
-    <t>송파캠퍼스</t>
-  </si>
-  <si>
-    <t>김혜란</t>
-  </si>
-  <si>
-    <t>01090990475</t>
-  </si>
-  <si>
-    <t>motionblue9@naver.com</t>
-  </si>
-  <si>
-    <t>정발산캠퍼스</t>
-  </si>
-  <si>
-    <t>정연하</t>
-  </si>
-  <si>
-    <t>01072779467</t>
-  </si>
-  <si>
-    <t>조선대캠퍼스</t>
-  </si>
-  <si>
-    <t>김세제</t>
-  </si>
-  <si>
-    <t>01030489848</t>
-  </si>
-  <si>
-    <t>shizai71@naver.com</t>
-  </si>
-  <si>
-    <t>구로역캠퍼스</t>
-  </si>
-  <si>
-    <t>한재형</t>
-  </si>
-  <si>
-    <t>01073073080</t>
-  </si>
-  <si>
-    <t>han308000@naver.com</t>
-  </si>
-  <si>
-    <t>서산동문캠퍼스</t>
-  </si>
-  <si>
-    <t>박은영</t>
-  </si>
-  <si>
-    <t>01065965278</t>
-  </si>
-  <si>
-    <t>hyeokie@naver.com</t>
-  </si>
-  <si>
-    <t>신중동캠퍼스</t>
-  </si>
-  <si>
-    <t>김점희</t>
-  </si>
-  <si>
-    <t>01058809133</t>
-  </si>
-  <si>
-    <t>연수캠퍼스</t>
-  </si>
-  <si>
-    <t>정연옥</t>
-  </si>
-  <si>
-    <t>01044530313</t>
-  </si>
-  <si>
-    <t>hanas303@naver.com</t>
-  </si>
-  <si>
-    <t>태평캠퍼스</t>
-  </si>
-  <si>
-    <t>이성수</t>
-  </si>
-  <si>
-    <t>01086840590</t>
-  </si>
-  <si>
-    <t>부산대캠퍼스</t>
-  </si>
-  <si>
-    <t>김태희</t>
-  </si>
-  <si>
-    <t>01099221857</t>
-  </si>
-  <si>
-    <t>Pleasantoi@naver.com</t>
-  </si>
-  <si>
-    <t>협성대캠퍼스</t>
-  </si>
-  <si>
-    <t>김순덕</t>
-  </si>
-  <si>
-    <t>01043737790</t>
-  </si>
-  <si>
-    <t>ksd8423@hanmail.net</t>
-  </si>
-  <si>
-    <t>명일점(CAFÉ)캠퍼스</t>
-  </si>
-  <si>
-    <t>서유리</t>
-  </si>
-  <si>
-    <t>01089444592</t>
-  </si>
-  <si>
-    <t>happy2u00@naver.com</t>
-  </si>
-  <si>
-    <t>강남자활센터캠퍼스</t>
-  </si>
-  <si>
-    <t>김경숙</t>
-  </si>
-  <si>
-    <t>01087078839</t>
-  </si>
-  <si>
-    <t>kn1801@hanmail.net</t>
-  </si>
-  <si>
-    <t>노량진역캠퍼스</t>
-  </si>
-  <si>
-    <t>정소연</t>
-  </si>
-  <si>
-    <t>01041629242</t>
-  </si>
-  <si>
-    <t>01041629242@daum.net</t>
-  </si>
-  <si>
-    <t>강동역캠퍼스</t>
-  </si>
-  <si>
-    <t>이명자</t>
-  </si>
-  <si>
-    <t>01087088330</t>
-  </si>
-  <si>
-    <t>돈암캠퍼스</t>
-  </si>
-  <si>
-    <t>박춘현</t>
-  </si>
-  <si>
-    <t>01020321923</t>
-  </si>
-  <si>
-    <t>pseen99@empas.com</t>
-  </si>
-  <si>
-    <t>청계캠퍼스</t>
-  </si>
-  <si>
-    <t>박형자</t>
-  </si>
-  <si>
-    <t>01095929071</t>
-  </si>
-  <si>
-    <t>hyoungia67@naver.com</t>
-  </si>
-  <si>
-    <t>영도캠퍼스</t>
-  </si>
-  <si>
-    <t>김태원</t>
-  </si>
-  <si>
-    <t>01037737274</t>
-  </si>
-  <si>
-    <t>ksoojinlucky@nate.com</t>
-  </si>
-  <si>
-    <t>신풍캠퍼스</t>
-  </si>
-  <si>
-    <t>허순옥</t>
-  </si>
-  <si>
-    <t>01040350171</t>
-  </si>
-  <si>
-    <t>jsj5373@naver.com</t>
-  </si>
-  <si>
-    <t>이태원캠퍼스</t>
-  </si>
-  <si>
-    <t>홍은숙</t>
-  </si>
-  <si>
-    <t>01049239747</t>
-  </si>
-  <si>
-    <t>오산운암캠퍼스</t>
-  </si>
-  <si>
-    <t>이경열</t>
-  </si>
-  <si>
-    <t>01090084562</t>
-  </si>
-  <si>
-    <t>lky486@hanmail.net</t>
-  </si>
-  <si>
-    <t>목4동캠퍼스</t>
-  </si>
-  <si>
-    <t>유재열</t>
-  </si>
-  <si>
-    <t>01099432520</t>
-  </si>
-  <si>
-    <t>imflight@hanmail.net</t>
-  </si>
-  <si>
-    <t>불광캠퍼스</t>
-  </si>
-  <si>
-    <t>이명래</t>
-  </si>
-  <si>
-    <t>01047670600</t>
-  </si>
-  <si>
-    <t>mrle63@hanmail.net</t>
-  </si>
-  <si>
-    <t>이메일 중복</t>
-  </si>
-  <si>
-    <t>천호로데오캠퍼스</t>
-  </si>
-  <si>
-    <t>이병희</t>
-  </si>
-  <si>
-    <t>01058916233</t>
-  </si>
-  <si>
-    <t>장현캠퍼스</t>
-  </si>
-  <si>
-    <t>박상진</t>
-  </si>
-  <si>
-    <t>01082507839</t>
-  </si>
-  <si>
-    <t>siesta99@hotmail.com</t>
-  </si>
-  <si>
-    <t>아차산캠퍼스</t>
-  </si>
-  <si>
-    <t>임정수</t>
-  </si>
-  <si>
-    <t>01033704054</t>
-  </si>
-  <si>
-    <t>teaconsuil@naver.com</t>
-  </si>
-  <si>
-    <t>은행사거리캠퍼스</t>
-  </si>
-  <si>
-    <t>이종표</t>
-  </si>
-  <si>
-    <t>01058335513</t>
-  </si>
-  <si>
-    <t>jongpyogo@naver.com</t>
-  </si>
-  <si>
-    <t>한양대캠퍼스</t>
-  </si>
-  <si>
-    <t>김건</t>
-  </si>
-  <si>
-    <t>01077467782</t>
-  </si>
-  <si>
-    <t>avm1004@naver.com</t>
-  </si>
-  <si>
-    <t>창동캠퍼스</t>
-  </si>
-  <si>
-    <t>문세영</t>
-  </si>
-  <si>
-    <t>01040097007</t>
-  </si>
-  <si>
-    <t>synoon0331@naver.com</t>
-  </si>
-  <si>
-    <t>홍제캠퍼스</t>
-  </si>
-  <si>
-    <t>박상숙</t>
-  </si>
-  <si>
-    <t>01099617273</t>
-  </si>
-  <si>
-    <t>balmymy@hanmail.net</t>
-  </si>
-  <si>
-    <t>정릉캠퍼스</t>
-  </si>
-  <si>
-    <t>남궁선애</t>
-  </si>
-  <si>
-    <t>01037972392</t>
-  </si>
-  <si>
-    <t>nksa7083@naver.com</t>
-  </si>
-  <si>
-    <t>양천구청캠퍼스</t>
-  </si>
-  <si>
-    <t>한기철</t>
-  </si>
-  <si>
-    <t>01037773730</t>
-  </si>
-  <si>
-    <t>gicheol_han@naver.com</t>
-  </si>
-  <si>
-    <t>JC캠퍼스</t>
-  </si>
-  <si>
-    <t>권호영</t>
-  </si>
-  <si>
-    <t>01035991267</t>
-  </si>
-  <si>
-    <t>미아사거리캠퍼스</t>
-  </si>
-  <si>
-    <t>안소형</t>
-  </si>
-  <si>
-    <t>01047177333</t>
-  </si>
-  <si>
-    <t>asjghi@nate.com</t>
-  </si>
-  <si>
-    <t>사당캠퍼스</t>
-  </si>
-  <si>
-    <t>김문선</t>
-  </si>
-  <si>
-    <t>01043777172</t>
-  </si>
-  <si>
-    <t>sun717273@naver.com</t>
-  </si>
-  <si>
-    <t>세종시캠퍼스</t>
-  </si>
-  <si>
-    <t>김복자</t>
-  </si>
-  <si>
-    <t>01033280920</t>
-  </si>
-  <si>
-    <t>ceandi@nate.com</t>
   </si>
 </sst>
 </file>
@@ -883,746 +445,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" t="s">
-        <v>142</v>
-      </c>
-      <c r="E36" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" t="s">
-        <v>147</v>
-      </c>
-      <c r="F37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25"/>

--- a/dist/uploads/excel/fail_upload.xlsx
+++ b/dist/uploads/excel/fail_upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>지점명</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>미입력사유</t>
+  </si>
+  <si>
+    <t>관리실</t>
+  </si>
+  <si>
+    <t>임원</t>
+  </si>
+  <si>
+    <t>관리자</t>
+  </si>
+  <si>
+    <t>01024277333</t>
+  </si>
+  <si>
+    <t>waffleuniv@naver.com</t>
+  </si>
+  <si>
+    <t>휴대폰번호 중복,이메일 중복</t>
   </si>
 </sst>
 </file>
@@ -449,7 +467,26 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25"/>

--- a/dist/uploads/excel/fail_upload.xlsx
+++ b/dist/uploads/excel/fail_upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>지점명</t>
   </si>
@@ -31,22 +31,67 @@
     <t>미입력사유</t>
   </si>
   <si>
-    <t>관리실</t>
-  </si>
-  <si>
-    <t>임원</t>
-  </si>
-  <si>
-    <t>관리자</t>
-  </si>
-  <si>
-    <t>01024277333</t>
-  </si>
-  <si>
-    <t>waffleuniv@naver.com</t>
+    <t>강남논현점</t>
+  </si>
+  <si>
+    <t>점주</t>
+  </si>
+  <si>
+    <t>강남논현점주</t>
+  </si>
+  <si>
+    <t>01012124545</t>
+  </si>
+  <si>
+    <t>example1@momstouch.co.kr</t>
   </si>
   <si>
     <t>휴대폰번호 중복,이메일 중복</t>
+  </si>
+  <si>
+    <t>김천혁신도시점</t>
+  </si>
+  <si>
+    <t>김천혁신도시점주</t>
+  </si>
+  <si>
+    <t>01012124646</t>
+  </si>
+  <si>
+    <t>example2@momstouch.co.kr</t>
+  </si>
+  <si>
+    <t>해남점</t>
+  </si>
+  <si>
+    <t>해남점주</t>
+  </si>
+  <si>
+    <t>01012124747</t>
+  </si>
+  <si>
+    <t>example3@momstouch.co.kr</t>
+  </si>
+  <si>
+    <t>[objectObject]</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>example4@momstouch.co.kr</t>
+  </si>
+  <si>
+    <t>잘못된 휴대폰번호 형식</t>
+  </si>
+  <si>
+    <t>example5@momstouch.co.kr</t>
+  </si>
+  <si>
+    <t>example23@momstouch.co.kr</t>
+  </si>
+  <si>
+    <t>example87@momstouch.co.kr</t>
   </si>
 </sst>
 </file>
@@ -463,28 +508,104 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25"/>
@@ -503,7 +624,26 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25"/>
@@ -567,7 +707,26 @@
     <row r="84" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25"/>

--- a/dist/uploads/excel/fail_upload.xlsx
+++ b/dist/uploads/excel/fail_upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>지점명</t>
   </si>
@@ -31,67 +31,22 @@
     <t>미입력사유</t>
   </si>
   <si>
-    <t>강남논현점</t>
+    <t>광진지점</t>
   </si>
   <si>
-    <t>점주</t>
+    <t>본부사원</t>
   </si>
   <si>
-    <t>강남논현점주</t>
+    <t>이동욱2</t>
   </si>
   <si>
-    <t>01012124545</t>
+    <t>01086306871</t>
   </si>
   <si>
-    <t>example1@momstouch.co.kr</t>
+    <t>js2@orangenamu.net</t>
   </si>
   <si>
     <t>휴대폰번호 중복,이메일 중복</t>
-  </si>
-  <si>
-    <t>김천혁신도시점</t>
-  </si>
-  <si>
-    <t>김천혁신도시점주</t>
-  </si>
-  <si>
-    <t>01012124646</t>
-  </si>
-  <si>
-    <t>example2@momstouch.co.kr</t>
-  </si>
-  <si>
-    <t>해남점</t>
-  </si>
-  <si>
-    <t>해남점주</t>
-  </si>
-  <si>
-    <t>01012124747</t>
-  </si>
-  <si>
-    <t>example3@momstouch.co.kr</t>
-  </si>
-  <si>
-    <t>[objectObject]</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>example4@momstouch.co.kr</t>
-  </si>
-  <si>
-    <t>잘못된 휴대폰번호 형식</t>
-  </si>
-  <si>
-    <t>example5@momstouch.co.kr</t>
-  </si>
-  <si>
-    <t>example23@momstouch.co.kr</t>
-  </si>
-  <si>
-    <t>example87@momstouch.co.kr</t>
   </si>
 </sst>
 </file>
@@ -528,86 +483,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25"/>
@@ -624,26 +503,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25"/>
@@ -707,26 +567,7 @@
     <row r="84" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>20</v>
-      </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" t="s">
-        <v>21</v>
-      </c>
-      <c r="E87" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25"/>

--- a/dist/uploads/excel/fail_upload.xlsx
+++ b/dist/uploads/excel/fail_upload.xlsx
@@ -31,22 +31,22 @@
     <t>미입력사유</t>
   </si>
   <si>
-    <t>광진지점</t>
+    <t>abc점</t>
   </si>
   <si>
-    <t>본부사원</t>
+    <t>부점장</t>
   </si>
   <si>
-    <t>이동욱2</t>
+    <t>456</t>
   </si>
   <si>
-    <t>01086306871</t>
+    <t>01012345679</t>
   </si>
   <si>
-    <t>js2@orangenamu.net</t>
+    <t/>
   </si>
   <si>
-    <t>휴대폰번호 중복,이메일 중복</t>
+    <t>휴대폰번호 중복</t>
   </si>
 </sst>
 </file>
@@ -463,27 +463,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25"/>

--- a/dist/uploads/excel/fail_upload.xlsx
+++ b/dist/uploads/excel/fail_upload.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>지점명</t>
   </si>
@@ -29,24 +29,6 @@
   </si>
   <si>
     <t>미입력사유</t>
-  </si>
-  <si>
-    <t>abc점</t>
-  </si>
-  <si>
-    <t>부점장</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>01012345679</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>휴대폰번호 중복</t>
   </si>
 </sst>
 </file>
@@ -464,26 +446,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25"/>
